--- a/Gastos mensuales Lili.xlsx
+++ b/Gastos mensuales Lili.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>Gastos mensuales de Lili</t>
   </si>
@@ -210,6 +210,18 @@
   </si>
   <si>
     <t>Laila</t>
+  </si>
+  <si>
+    <t>Dentista, medicinas y visita doctor</t>
+  </si>
+  <si>
+    <t>Sept</t>
+  </si>
+  <si>
+    <t>Gastos sept</t>
+  </si>
+  <si>
+    <t>Oct</t>
   </si>
 </sst>
 </file>
@@ -222,7 +234,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +278,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -294,7 +313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -324,6 +343,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -354,7 +376,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -956,13 +978,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,15 +1010,15 @@
         <v>58</v>
       </c>
       <c r="E1" s="22">
-        <f>SUM(C2:C202)</f>
-        <v>14337.8895885446</v>
+        <f>SUM(C2:C203)</f>
+        <v>14961.235261059219</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>59</v>
       </c>
       <c r="H1" s="22">
-        <f>SUM(B2:B202)</f>
-        <v>191899.10852050473</v>
+        <f>SUM(B2:B203)</f>
+        <v>203499.10852050473</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1289,7 +1311,7 @@
         <v>50</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="H19">
+      <c r="H19" s="24">
         <v>18.170000000000002</v>
       </c>
     </row>
@@ -1327,7 +1349,7 @@
         <v>60</v>
       </c>
       <c r="E21" s="18"/>
-      <c r="H21" s="20">
+      <c r="H21" s="25">
         <v>18.09</v>
       </c>
     </row>
@@ -1346,7 +1368,7 @@
         <v>62</v>
       </c>
       <c r="E22" s="18"/>
-      <c r="H22" s="20">
+      <c r="H22" s="25">
         <v>18.09</v>
       </c>
     </row>
@@ -1365,7 +1387,7 @@
         <v>52</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="H23">
+      <c r="H23" s="24">
         <v>18.440000000000001</v>
       </c>
     </row>
@@ -1384,7 +1406,7 @@
       </c>
       <c r="E24" s="3"/>
       <c r="H24" s="2">
-        <f t="shared" ref="H24:H29" si="0">B24/C24</f>
+        <f t="shared" ref="H24:H30" si="0">B24/C24</f>
         <v>18.44388277887834</v>
       </c>
     </row>
@@ -1491,26 +1513,76 @@
         <v>63</v>
       </c>
       <c r="H29" s="19">
-        <f t="shared" si="0"/>
+        <f>B29/C29</f>
         <v>18.236195200233421</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="E30" s="3"/>
+    <row r="30" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="18">
+        <v>5000</v>
+      </c>
+      <c r="C30" s="18">
+        <f>B30/H30</f>
+        <v>277.77777777777777</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="G30" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" s="23">
+        <v>18</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="A31" s="12">
+        <v>42639</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1600</v>
+      </c>
+      <c r="C31" s="3">
+        <v>82.41</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="H31" s="19">
+        <f>B31/C31</f>
+        <v>19.415119524329572</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C32" s="18">
+        <f>B32/H32</f>
+        <v>263.15789473684208</v>
+      </c>
+      <c r="G32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" s="24">
+        <v>19</v>
+      </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Gastos mensuales Lili.xlsx
+++ b/Gastos mensuales Lili.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
   <si>
     <t>Gastos mensuales de Lili</t>
   </si>
@@ -222,6 +222,24 @@
   </si>
   <si>
     <t>Oct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laila - Lili se salio de casa de </t>
+  </si>
+  <si>
+    <t>Dr and medicinas</t>
+  </si>
+  <si>
+    <t>Anticipo mes de Dic.</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>*** mande 1000 a la centa de Charly</t>
+  </si>
+  <si>
+    <t>Analysis and Dr</t>
   </si>
 </sst>
 </file>
@@ -234,7 +252,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +303,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -313,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -346,6 +371,7 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -978,18 +1004,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32:XFD32"/>
+      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="10" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" style="10" customWidth="1"/>
     <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
@@ -1010,15 +1036,15 @@
         <v>58</v>
       </c>
       <c r="E1" s="22">
-        <f>SUM(C2:C203)</f>
-        <v>14961.235261059219</v>
+        <f>SUM(C2:C198)</f>
+        <v>15604.205261059218</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>59</v>
       </c>
       <c r="H1" s="22">
-        <f>SUM(B2:B203)</f>
-        <v>203499.10852050473</v>
+        <f>SUM(B2:B198)</f>
+        <v>216716.35852050473</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1406,7 +1432,7 @@
       </c>
       <c r="E24" s="3"/>
       <c r="H24" s="2">
-        <f t="shared" ref="H24:H30" si="0">B24/C24</f>
+        <f t="shared" ref="H24:H28" si="0">B24/C24</f>
         <v>18.44388277887834</v>
       </c>
     </row>
@@ -1569,20 +1595,116 @@
         <f>B32/H32</f>
         <v>263.15789473684208</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="16" t="s">
         <v>63</v>
       </c>
       <c r="H32" s="24">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>42661</v>
+      </c>
+      <c r="B33" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C33" s="3">
+        <v>272.56</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" s="20">
+        <f>B33/C33</f>
+        <v>18.344584678602875</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>42663</v>
+      </c>
+      <c r="B34" s="3">
+        <v>2600</v>
+      </c>
+      <c r="C34" s="3">
+        <v>142.47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" s="20">
+        <f t="shared" ref="H34:H36" si="1">B34/C34</f>
+        <v>18.24945602583</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>42689</v>
+      </c>
+      <c r="B35" s="3">
+        <v>600</v>
+      </c>
+      <c r="C35" s="10">
+        <v>29.6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" s="20">
+        <f t="shared" si="1"/>
+        <v>20.27027027027027</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>42699</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2500</v>
+      </c>
+      <c r="C36" s="10">
+        <v>123.34</v>
+      </c>
+      <c r="D36" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36" s="20">
+        <f t="shared" si="1"/>
+        <v>20.269174639208689</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>42710</v>
+      </c>
+      <c r="B37" s="3">
+        <f>C37*H37</f>
+        <v>1517.25</v>
+      </c>
+      <c r="C37" s="10">
+        <v>75</v>
+      </c>
+      <c r="D37" t="s">
+        <v>73</v>
+      </c>
+      <c r="H37">
+        <v>20.23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="10">
+        <v>1000</v>
+      </c>
+      <c r="D38" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Gastos mensuales Lili.xlsx
+++ b/Gastos mensuales Lili.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="10515" windowHeight="8220" activeTab="1"/>
+    <workbookView xWindow="7245" yWindow="-285" windowWidth="10515" windowHeight="8220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Presupuesto" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
   <si>
     <t>Gastos mensuales de Lili</t>
   </si>
@@ -240,6 +240,27 @@
   </si>
   <si>
     <t>Analysis and Dr</t>
+  </si>
+  <si>
+    <t>Segunda quincena de Dec</t>
+  </si>
+  <si>
+    <t>Prestamo especial. Dr? Medicinas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extra  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quincena  </t>
+  </si>
+  <si>
+    <t>Quincena</t>
+  </si>
+  <si>
+    <t>Extra</t>
   </si>
 </sst>
 </file>
@@ -338,7 +359,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -372,6 +393,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -402,7 +424,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1004,13 +1026,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomRight" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,15 +1058,15 @@
         <v>58</v>
       </c>
       <c r="E1" s="22">
-        <f>SUM(C2:C198)</f>
-        <v>15604.205261059218</v>
+        <f>SUM(C2:C197)</f>
+        <v>14993.13526105922</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>59</v>
       </c>
       <c r="H1" s="22">
         <f>SUM(B2:B198)</f>
-        <v>216716.35852050473</v>
+        <v>229266.35852050473</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1706,6 +1728,104 @@
         <v>72</v>
       </c>
     </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>42716</v>
+      </c>
+      <c r="B39" s="10">
+        <v>1000</v>
+      </c>
+      <c r="C39">
+        <v>-49.97</v>
+      </c>
+      <c r="D39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>42719</v>
+      </c>
+      <c r="B40" s="10">
+        <v>2500</v>
+      </c>
+      <c r="C40">
+        <v>-125.9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>42739</v>
+      </c>
+      <c r="B41" s="10">
+        <v>1700</v>
+      </c>
+      <c r="C41">
+        <v>-82.16</v>
+      </c>
+      <c r="D41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>42744</v>
+      </c>
+      <c r="B42" s="10">
+        <v>1350</v>
+      </c>
+      <c r="C42">
+        <v>-64.709999999999994</v>
+      </c>
+      <c r="D42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>42752</v>
+      </c>
+      <c r="B43" s="10">
+        <v>2500</v>
+      </c>
+      <c r="C43">
+        <v>-117.4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="27">
+        <v>42765</v>
+      </c>
+      <c r="B44" s="10">
+        <v>2500</v>
+      </c>
+      <c r="C44" s="16">
+        <v>-120.94</v>
+      </c>
+      <c r="D44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>42773</v>
+      </c>
+      <c r="B45" s="10">
+        <v>1000</v>
+      </c>
+      <c r="C45">
+        <v>-49.99</v>
+      </c>
+      <c r="D45" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Gastos mensuales Lili.xlsx
+++ b/Gastos mensuales Lili.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
   <si>
     <t>Gastos mensuales de Lili</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>Extra</t>
+  </si>
+  <si>
+    <t>Mande $6 mil y pico para la TV. $4 mil de regalo, el resto prestamo Lli</t>
   </si>
 </sst>
 </file>
@@ -1026,13 +1029,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D46" sqref="D46"/>
+      <selection pane="bottomRight" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1826,6 +1829,14 @@
         <v>80</v>
       </c>
     </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="12">
+        <v>42783</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Gastos mensuales Lili.xlsx
+++ b/Gastos mensuales Lili.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7245" yWindow="-285" windowWidth="10515" windowHeight="8220" activeTab="1"/>
+    <workbookView xWindow="1215" yWindow="-225" windowWidth="10515" windowHeight="8220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Presupuesto" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="89">
   <si>
     <t>Gastos mensuales de Lili</t>
   </si>
@@ -264,6 +264,27 @@
   </si>
   <si>
     <t>Mande $6 mil y pico para la TV. $4 mil de regalo, el resto prestamo Lli</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>Regalo Lili</t>
+  </si>
+  <si>
+    <t>Doctor visit and medicines</t>
+  </si>
+  <si>
+    <t>Quincena + Dr visit and medicines ($1,600)</t>
+  </si>
+  <si>
+    <t>Mande $4,500; $2,500 quincena, + $2,000 cambio de casa</t>
+  </si>
+  <si>
+    <t>Renta casa Lili, + seguro de deposito</t>
+  </si>
+  <si>
+    <t>Medicinas Laila regalo</t>
   </si>
 </sst>
 </file>
@@ -1029,13 +1050,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A47" sqref="A47"/>
+      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,15 +1082,15 @@
         <v>58</v>
       </c>
       <c r="E1" s="22">
-        <f>SUM(C2:C197)</f>
-        <v>14993.13526105922</v>
+        <f>SUM(C2:C198)</f>
+        <v>16407.154011059221</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>59</v>
       </c>
       <c r="H1" s="22">
-        <f>SUM(B2:B198)</f>
-        <v>229266.35852050473</v>
+        <f>SUM(B2:B199)</f>
+        <v>253866.35852050473</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1830,11 +1851,156 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="12">
+      <c r="A46" s="9">
+        <v>42780</v>
+      </c>
+      <c r="B46" s="10">
+        <v>2500</v>
+      </c>
+      <c r="C46">
+        <v>125.35</v>
+      </c>
+      <c r="D46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="12">
         <v>42783</v>
       </c>
-      <c r="G46" s="21" t="s">
+      <c r="B47" s="10">
+        <v>6400</v>
+      </c>
+      <c r="C47" s="10">
+        <v>482.45</v>
+      </c>
+      <c r="D47" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="10">
+        <f>B47/C47</f>
+        <v>13.265623380661209</v>
+      </c>
+      <c r="G47" s="21" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="12">
+        <v>42783</v>
+      </c>
+      <c r="B48" s="10">
+        <v>-4000</v>
+      </c>
+      <c r="C48" s="10">
+        <f>B48/E47</f>
+        <v>-301.53125</v>
+      </c>
+      <c r="D48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="12">
+        <v>42793</v>
+      </c>
+      <c r="B49" s="10">
+        <v>2500</v>
+      </c>
+      <c r="C49" s="10">
+        <v>129</v>
+      </c>
+      <c r="D49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="12">
+        <v>42804</v>
+      </c>
+      <c r="B50" s="10">
+        <v>1600</v>
+      </c>
+      <c r="C50" s="10">
+        <v>82.75</v>
+      </c>
+      <c r="D50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="12">
+        <v>42809</v>
+      </c>
+      <c r="B51" s="10">
+        <v>2500</v>
+      </c>
+      <c r="C51" s="10">
+        <v>130</v>
+      </c>
+      <c r="D51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="12">
+        <v>42824</v>
+      </c>
+      <c r="B52" s="10">
+        <v>4100</v>
+      </c>
+      <c r="C52" s="10">
+        <v>223</v>
+      </c>
+      <c r="D52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="12">
+        <v>42828</v>
+      </c>
+      <c r="B53" s="10">
+        <v>9000</v>
+      </c>
+      <c r="C53" s="10">
+        <v>489</v>
+      </c>
+      <c r="D53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="12">
+        <v>42832</v>
+      </c>
+      <c r="B54" s="10">
+        <v>500</v>
+      </c>
+      <c r="C54" s="10">
+        <v>27</v>
+      </c>
+      <c r="D54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="12">
+        <v>42832</v>
+      </c>
+      <c r="B55" s="10">
+        <v>-500</v>
+      </c>
+      <c r="C55" s="10">
+        <v>27</v>
+      </c>
+      <c r="D55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G56" s="21" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Gastos mensuales Lili.xlsx
+++ b/Gastos mensuales Lili.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lizk\Documents\_Personal\Recon\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="-225" windowWidth="10515" windowHeight="8220" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16368" windowHeight="5604" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Presupuesto" sheetId="1" r:id="rId1"/>
@@ -13,12 +18,12 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
   <si>
     <t>Gastos mensuales de Lili</t>
   </si>
@@ -278,13 +283,19 @@
     <t>Quincena + Dr visit and medicines ($1,600)</t>
   </si>
   <si>
-    <t>Mande $4,500; $2,500 quincena, + $2,000 cambio de casa</t>
-  </si>
-  <si>
-    <t>Renta casa Lili, + seguro de deposito</t>
-  </si>
-  <si>
     <t>Medicinas Laila regalo</t>
+  </si>
+  <si>
+    <t>$2,500 quincena, + $2,000 cambio de casa</t>
+  </si>
+  <si>
+    <t>Renta casa Lili ($4,500), + seguro de deposito de casa de renta ($4,500)</t>
+  </si>
+  <si>
+    <t>Renta Mayo $4,500 + $2,500 quincena</t>
+  </si>
+  <si>
+    <t>$2,500 Quincena, + $500 Luz, + $300 medicina Laila</t>
   </si>
 </sst>
 </file>
@@ -356,7 +367,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,6 +377,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,7 +400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -418,6 +435,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -428,6 +446,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -497,7 +518,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -532,7 +553,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -747,19 +768,19 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="3.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="3"/>
+    <col min="5" max="5" width="3.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -767,7 +788,7 @@
         <v>42427</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
@@ -778,7 +799,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -791,7 +812,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -810,7 +831,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -824,7 +845,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -839,7 +860,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -857,7 +878,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -872,7 +893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -890,7 +911,7 @@
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -908,7 +929,7 @@
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -926,7 +947,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>24</v>
       </c>
@@ -939,12 +960,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -957,12 +978,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -975,12 +996,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>22</v>
       </c>
@@ -991,7 +1012,7 @@
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>13</v>
       </c>
@@ -1004,12 +1025,12 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -1024,11 +1045,11 @@
       </c>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>23</v>
       </c>
@@ -1050,28 +1071,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomRight" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="10"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="10"/>
     <col min="6" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="11" t="s">
         <v>34</v>
       </c>
@@ -1083,17 +1104,21 @@
       </c>
       <c r="E1" s="22">
         <f>SUM(C2:C198)</f>
-        <v>16407.154011059221</v>
+        <v>17190.367366108083</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>59</v>
       </c>
       <c r="H1" s="22">
         <f>SUM(B2:B199)</f>
-        <v>253866.35852050473</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>268366.35852050473</v>
+      </c>
+      <c r="J1">
+        <f>H1/E1</f>
+        <v>15.611438243583223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>42428</v>
       </c>
@@ -1115,7 +1140,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" s="3"/>
       <c r="C3" s="13"/>
       <c r="D3" t="s">
@@ -1125,7 +1150,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="13"/>
       <c r="D4" t="s">
@@ -1135,7 +1160,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>42444</v>
       </c>
@@ -1155,7 +1180,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>42461</v>
       </c>
@@ -1173,7 +1198,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <f>[1]Checking!$A$65</f>
         <v>42478</v>
@@ -1190,7 +1215,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>42492</v>
       </c>
@@ -1206,7 +1231,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>42505</v>
       </c>
@@ -1222,7 +1247,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>42512</v>
       </c>
@@ -1238,7 +1263,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>42512</v>
       </c>
@@ -1254,7 +1279,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>42513</v>
       </c>
@@ -1270,7 +1295,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>42513</v>
       </c>
@@ -1287,7 +1312,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>42514</v>
       </c>
@@ -1303,7 +1328,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>42514</v>
       </c>
@@ -1319,7 +1344,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>42522</v>
       </c>
@@ -1335,7 +1360,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>42536</v>
       </c>
@@ -1350,7 +1375,7 @@
       </c>
       <c r="E17" s="14"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>42551</v>
       </c>
@@ -1368,7 +1393,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>42551</v>
       </c>
@@ -1387,7 +1412,7 @@
         <v>18.170000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>42566</v>
       </c>
@@ -1406,7 +1431,7 @@
         <v>18.028412778538979</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>42576</v>
       </c>
@@ -1425,7 +1450,7 @@
         <v>18.09</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>42576</v>
       </c>
@@ -1444,7 +1469,7 @@
         <v>18.09</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>42580</v>
       </c>
@@ -1463,7 +1488,7 @@
         <v>18.440000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>42580</v>
       </c>
@@ -1482,7 +1507,7 @@
         <v>18.44388277887834</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>42597</v>
       </c>
@@ -1501,7 +1526,7 @@
         <v>17.857142857142858</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>42607</v>
       </c>
@@ -1523,7 +1548,7 @@
         <v>18.148820326678766</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>42611</v>
       </c>
@@ -1545,7 +1570,7 @@
         <v>18.236195200233421</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>42609</v>
       </c>
@@ -1567,7 +1592,7 @@
         <v>17.666666666666668</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>42612</v>
       </c>
@@ -1589,7 +1614,7 @@
         <v>18.236195200233421</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>65</v>
       </c>
@@ -1611,7 +1636,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>42639</v>
       </c>
@@ -1630,7 +1655,7 @@
         <v>19.415119524329572</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -1648,7 +1673,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>42661</v>
       </c>
@@ -1666,7 +1691,7 @@
         <v>18.344584678602875</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>42663</v>
       </c>
@@ -1684,7 +1709,7 @@
         <v>18.24945602583</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>42689</v>
       </c>
@@ -1702,7 +1727,7 @@
         <v>20.27027027027027</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>42699</v>
       </c>
@@ -1723,7 +1748,7 @@
         <v>20.269174639208689</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>42710</v>
       </c>
@@ -1741,7 +1766,7 @@
         <v>20.23</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -1752,7 +1777,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>42716</v>
       </c>
@@ -1766,7 +1791,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>42719</v>
       </c>
@@ -1780,7 +1805,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>42739</v>
       </c>
@@ -1794,7 +1819,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>42744</v>
       </c>
@@ -1808,7 +1833,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>42752</v>
       </c>
@@ -1822,7 +1847,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="27">
         <v>42765</v>
       </c>
@@ -1836,7 +1861,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <v>42773</v>
       </c>
@@ -1850,7 +1875,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>42780</v>
       </c>
@@ -1864,7 +1889,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
         <v>42783</v>
       </c>
@@ -1885,7 +1910,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
         <v>42783</v>
       </c>
@@ -1900,7 +1925,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
         <v>42793</v>
       </c>
@@ -1914,7 +1939,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
         <v>42804</v>
       </c>
@@ -1928,7 +1953,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
         <v>42809</v>
       </c>
@@ -1942,7 +1967,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
         <v>42824</v>
       </c>
@@ -1956,7 +1981,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="12">
         <v>42828</v>
       </c>
@@ -1967,10 +1992,10 @@
         <v>489</v>
       </c>
       <c r="D53" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="12">
         <v>42832</v>
       </c>
@@ -1981,10 +2006,10 @@
         <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="12">
         <v>42832</v>
       </c>
@@ -1995,15 +2020,82 @@
         <v>27</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G56" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="9">
+        <v>42839</v>
+      </c>
+      <c r="B56" s="10">
+        <v>4500</v>
+      </c>
+      <c r="C56">
+        <v>244.93</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="9">
+        <v>42856</v>
+      </c>
+      <c r="B57" s="10">
+        <v>7000</v>
+      </c>
+      <c r="C57">
+        <v>375.39</v>
+      </c>
+      <c r="D57" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="9">
+        <v>42870</v>
+      </c>
+      <c r="B58" s="10">
+        <v>3300</v>
+      </c>
+      <c r="C58">
+        <v>179.18</v>
+      </c>
+      <c r="D58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="9">
+        <v>42870</v>
+      </c>
+      <c r="B59" s="10">
+        <v>-300</v>
+      </c>
+      <c r="C59">
+        <f>B59/18.42</f>
+        <v>-16.286644951140065</v>
+      </c>
+      <c r="D59" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<sisl xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2008/01/sie/internal/label" sislVersion="0" policy="82ad3a63-90ad-4a46-a3cb-757f4658e205" origin="userSelected">
+  <element uid="768aceb2-b366-4b48-827b-e820edc548bd" value=""/>
+</sisl>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{410A2C77-46FE-428F-8B60-B678ED787B04}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Gastos mensuales Lili.xlsx
+++ b/Gastos mensuales Lili.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="96">
   <si>
     <t>Gastos mensuales de Lili</t>
   </si>
@@ -296,6 +296,21 @@
   </si>
   <si>
     <t>$2,500 Quincena, + $500 Luz, + $300 medicina Laila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quincena </t>
+  </si>
+  <si>
+    <t>$800 pintura, $700 fumigada y $800 regalo medicina Meli</t>
+  </si>
+  <si>
+    <t>Regalo medicina Meli</t>
+  </si>
+  <si>
+    <t>$2,500 quincena, $4,500 y $800 para arreglar depa?</t>
+  </si>
+  <si>
+    <t>$9,300 predial, saldo y multa de agua y posiblemente mantenimient ($4,500)</t>
   </si>
 </sst>
 </file>
@@ -1071,13 +1086,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C59" sqref="C59"/>
+      <selection pane="bottomRight" activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1104,18 +1119,18 @@
       </c>
       <c r="E1" s="22">
         <f>SUM(C2:C198)</f>
-        <v>17190.367366108083</v>
+        <v>18884.412921663636</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>59</v>
       </c>
       <c r="H1" s="22">
         <f>SUM(B2:B199)</f>
-        <v>268366.35852050473</v>
+        <v>298666.35852050473</v>
       </c>
       <c r="J1">
         <f>H1/E1</f>
-        <v>15.611438243583223</v>
+        <v>15.815496079196805</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1925,7 +1940,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
         <v>42793</v>
       </c>
@@ -1939,7 +1954,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
         <v>42804</v>
       </c>
@@ -1953,7 +1968,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
         <v>42809</v>
       </c>
@@ -1967,7 +1982,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
         <v>42824</v>
       </c>
@@ -1981,7 +1996,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="12">
         <v>42828</v>
       </c>
@@ -1995,7 +2010,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="12">
         <v>42832</v>
       </c>
@@ -2009,7 +2024,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="12">
         <v>42832</v>
       </c>
@@ -2023,7 +2038,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
         <v>42839</v>
       </c>
@@ -2036,8 +2051,9 @@
       <c r="D56" s="28" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <v>42856</v>
       </c>
@@ -2051,7 +2067,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>42870</v>
       </c>
@@ -2065,7 +2081,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>42870</v>
       </c>
@@ -2073,11 +2089,108 @@
         <v>-300</v>
       </c>
       <c r="C59">
-        <f>B59/18.42</f>
         <v>-16.286644951140065</v>
       </c>
       <c r="D59" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="9">
+        <v>42886</v>
+      </c>
+      <c r="B60" s="10">
+        <v>2500</v>
+      </c>
+      <c r="C60" s="10">
+        <v>138.21</v>
+      </c>
+      <c r="D60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="12">
+        <v>42894</v>
+      </c>
+      <c r="B61" s="10">
+        <v>2300</v>
+      </c>
+      <c r="C61" s="10">
+        <v>128.97</v>
+      </c>
+      <c r="D61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="12">
+        <v>42894</v>
+      </c>
+      <c r="B62" s="10">
+        <v>-800</v>
+      </c>
+      <c r="C62" s="10">
+        <v>-44.444444444444443</v>
+      </c>
+      <c r="D62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="9">
+        <v>42900</v>
+      </c>
+      <c r="B63" s="10">
+        <v>7800</v>
+      </c>
+      <c r="C63" s="10">
+        <v>438.39</v>
+      </c>
+      <c r="D63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="9">
+        <v>42913</v>
+      </c>
+      <c r="B64" s="10">
+        <v>1000</v>
+      </c>
+      <c r="C64" s="10">
+        <v>57.14</v>
+      </c>
+      <c r="D64" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="9">
+        <v>42916</v>
+      </c>
+      <c r="B65" s="10">
+        <v>2500</v>
+      </c>
+      <c r="C65" s="10">
+        <v>141.87</v>
+      </c>
+      <c r="D65" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="9">
+        <v>42921</v>
+      </c>
+      <c r="B66" s="10">
+        <v>15000</v>
+      </c>
+      <c r="C66" s="10">
+        <v>833.91</v>
+      </c>
+      <c r="D66" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2092,7 +2205,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{410A2C77-46FE-428F-8B60-B678ED787B04}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1961959F-6746-49B6-A3C4-A9AB6059CEFC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>

--- a/Gastos mensuales Lili.xlsx
+++ b/Gastos mensuales Lili.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="106">
   <si>
     <t>Gastos mensuales de Lili</t>
   </si>
@@ -311,6 +311,36 @@
   </si>
   <si>
     <t>$9,300 predial, saldo y multa de agua y posiblemente mantenimient ($4,500)</t>
+  </si>
+  <si>
+    <t>Deposito para Dr y ayuda gas de Lailita</t>
+  </si>
+  <si>
+    <t>Agradecimiento para Lailita por ayudar a Lili</t>
+  </si>
+  <si>
+    <t>Regalo cumple Laila</t>
+  </si>
+  <si>
+    <t>Regalo de Laila (Biendo tiene que acreditarlo a la casa azul)</t>
+  </si>
+  <si>
+    <t>Presamo para acabar la quincena.</t>
+  </si>
+  <si>
+    <t>Ultima ayuda de quincena. Lili empezo a recibir su pension la primara semana de Agosto.</t>
+  </si>
+  <si>
+    <t>Lili pago 1</t>
+  </si>
+  <si>
+    <t>Lili pago 2</t>
+  </si>
+  <si>
+    <t>Minus payments:</t>
+  </si>
+  <si>
+    <t>Saldo (Balance)</t>
   </si>
 </sst>
 </file>
@@ -323,7 +353,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +411,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -415,7 +453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -451,6 +489,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1086,1115 +1141,1643 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D55" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G61" sqref="G61"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="10"/>
-    <col min="6" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="32.109375" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="2" max="3" width="10.109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="10"/>
+    <col min="7" max="7" width="4" customWidth="1"/>
+    <col min="8" max="8" width="32.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="3.44140625" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="22">
-        <f>SUM(C2:C198)</f>
-        <v>18884.412921663636</v>
-      </c>
-      <c r="G1" s="21" t="s">
+      <c r="F1" s="22">
+        <f>SUM(D5:D78)</f>
+        <v>17366.737054035333</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="22">
-        <f>SUM(B2:B199)</f>
-        <v>298666.35852050473</v>
-      </c>
-      <c r="J1">
-        <f>H1/E1</f>
-        <v>15.815496079196805</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+      <c r="I1" s="22">
+        <f>SUM(B5:B78)</f>
+        <v>316200.25</v>
+      </c>
+      <c r="K1" s="20">
+        <f>I1/F1</f>
+        <v>18.20723426721819</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="42">
+        <f>SUM(D$80:D$82)</f>
+        <v>-13784</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="42">
+        <f>SUM(B$80:B$82)</f>
+        <v>-249214.71999999997</v>
+      </c>
+      <c r="K2" s="20">
+        <f t="shared" ref="K2:K3" si="0">I2/F2</f>
+        <v>18.079999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="43">
+        <f>F1+F2</f>
+        <v>3582.7370540353331</v>
+      </c>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="43">
+        <f>I1+I2</f>
+        <v>66985.530000000028</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="20">
+        <f t="shared" si="0"/>
+        <v>18.696747483757544</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="39"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
         <v>42428</v>
       </c>
-      <c r="B2" s="3">
-        <f>SUM(E2:E4)+10</f>
+      <c r="B5" s="3">
+        <f>SUM(F5:F7)+10</f>
         <v>4400</v>
       </c>
-      <c r="C2" s="13">
-        <f>B2/17.73</f>
+      <c r="C5" s="3">
+        <f>B5/D5</f>
+        <v>17.73</v>
+      </c>
+      <c r="D5" s="13">
+        <f>B5/17.73</f>
         <v>248.16694867456289</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F5" s="3">
         <v>2500</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="3"/>
-      <c r="C3" s="13"/>
-      <c r="D3" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="13"/>
+      <c r="E6" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F6" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
-      <c r="C4" s="13"/>
-      <c r="D4" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="13"/>
+      <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F7" s="3">
         <v>690</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
         <v>42444</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B8" s="3">
         <v>2500</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C8" s="3">
+        <f>B8/D8</f>
+        <v>17.241379310344829</v>
+      </c>
+      <c r="D8" s="13">
         <v>145</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E8" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F8" s="3"/>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>42461</v>
+      </c>
+      <c r="B9" s="3">
         <v>2500</v>
       </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
-        <v>42461</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2500</v>
-      </c>
-      <c r="C6" s="3">
-        <f>B6/17</f>
+      <c r="C9" s="3">
+        <f t="shared" ref="C9:C72" si="1">B9/D9</f>
+        <v>17</v>
+      </c>
+      <c r="D9" s="3">
+        <f>B9/17</f>
         <v>147.05882352941177</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E9" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="3">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
         <f>[1]Checking!$A$65</f>
         <v>42478</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B10" s="3">
         <v>2500</v>
       </c>
-      <c r="C7" s="3">
-        <f>B7/17.19</f>
+      <c r="C10" s="3">
+        <f t="shared" si="1"/>
+        <v>17.190000000000001</v>
+      </c>
+      <c r="D10" s="3">
+        <f>B10/17.19</f>
         <v>145.43339150668993</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E10" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
         <v>42492</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B11" s="3">
         <v>2500</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C11" s="3">
+        <f t="shared" si="1"/>
+        <v>16.33986928104575</v>
+      </c>
+      <c r="D11" s="3">
         <f>149+4</f>
         <v>153</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E11" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
         <v>42505</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B12" s="3">
         <v>2500</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C12" s="3">
+        <f t="shared" si="1"/>
+        <v>17.123287671232877</v>
+      </c>
+      <c r="D12" s="3">
         <f>142+4</f>
         <v>146</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E12" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
         <v>42512</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B13" s="3">
         <v>1000</v>
       </c>
-      <c r="C10" s="2">
-        <f>B10/18</f>
+      <c r="C13" s="3">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D13" s="2">
+        <f>B13/18</f>
         <v>55.555555555555557</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E13" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
         <v>42512</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B14" s="3">
         <v>500</v>
       </c>
-      <c r="C11" s="2">
-        <f>B11/18</f>
+      <c r="C14" s="3">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D14" s="2">
+        <f>B14/18</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E14" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
         <v>42513</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B15" s="3">
         <v>107000</v>
       </c>
-      <c r="C12" s="3">
-        <f>B12/18.3</f>
+      <c r="C15" s="3">
+        <f t="shared" si="1"/>
+        <v>18.3</v>
+      </c>
+      <c r="D15" s="3">
+        <f>B15/18.3</f>
         <v>5846.9945355191257</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E15" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
         <v>42513</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B16" s="3">
         <f>250*19</f>
         <v>4750</v>
       </c>
-      <c r="C13" s="3">
-        <f>B13/18.3</f>
+      <c r="C16" s="3">
+        <f t="shared" si="1"/>
+        <v>18.3</v>
+      </c>
+      <c r="D16" s="3">
+        <f>B16/18.3</f>
         <v>259.56284153005464</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
         <v>42514</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B17" s="3">
         <v>6000</v>
       </c>
-      <c r="C14" s="3">
-        <f>B14/18.3</f>
+      <c r="C17" s="3">
+        <f t="shared" si="1"/>
+        <v>18.3</v>
+      </c>
+      <c r="D17" s="3">
+        <f>B17/18.3</f>
         <v>327.86885245901635</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E17" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
         <v>42514</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B18" s="3">
         <v>200</v>
       </c>
-      <c r="C15" s="3">
-        <f>B15/18.3</f>
+      <c r="C18" s="3">
+        <f t="shared" si="1"/>
+        <v>18.3</v>
+      </c>
+      <c r="D18" s="3">
+        <f>B18/18.3</f>
         <v>10.928961748633879</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E18" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
         <v>42522</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B19" s="3">
         <v>2500</v>
       </c>
-      <c r="C16" s="3">
-        <f>B16/18.3</f>
+      <c r="C19" s="3">
+        <f t="shared" si="1"/>
+        <v>18.3</v>
+      </c>
+      <c r="D19" s="3">
+        <f>B19/18.3</f>
         <v>136.61202185792348</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E19" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
         <v>42536</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B20" s="3">
         <v>2500</v>
       </c>
-      <c r="C17">
+      <c r="C20" s="3">
+        <f t="shared" si="1"/>
+        <v>18.541867536898316</v>
+      </c>
+      <c r="D20">
         <v>134.83000000000001</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="E20" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="17">
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="17">
         <v>42551</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B21" s="18">
         <v>2500</v>
       </c>
-      <c r="C18">
+      <c r="C21" s="3">
+        <f t="shared" si="1"/>
+        <v>18.188432157148057</v>
+      </c>
+      <c r="D21">
         <v>137.44999999999999</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E21" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="H18" t="s">
+      <c r="F21" s="3"/>
+      <c r="I21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="17">
         <v>42551</v>
       </c>
-      <c r="B19" s="19">
-        <f>C19/H19</f>
-        <v>13.208585580627407</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="B22" s="19">
         <v>240</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C22" s="3">
+        <f t="shared" si="1"/>
+        <v>18.188432157148057</v>
+      </c>
+      <c r="D22" s="3">
+        <f>B22/C21</f>
+        <v>13.195199999999998</v>
+      </c>
+      <c r="E22" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="H19" s="24">
+      <c r="F22" s="3"/>
+      <c r="I22" s="24">
         <v>18.170000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="17">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="17">
         <v>42566</v>
       </c>
-      <c r="B20" s="19">
-        <v>138.66999999999999</v>
-      </c>
-      <c r="C20" s="3">
+      <c r="B23" s="19">
         <v>2500</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C23" s="3">
+        <f t="shared" si="1"/>
+        <v>18.188432157148057</v>
+      </c>
+      <c r="D23" s="3">
+        <v>137.44999999999999</v>
+      </c>
+      <c r="E23" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="H20" s="20">
-        <f>C20/B20</f>
-        <v>18.028412778538979</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17">
+      <c r="F23" s="3"/>
+      <c r="I23" s="20">
+        <f>D23/B23</f>
+        <v>5.4979999999999994E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="17">
         <v>42576</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B24" s="18">
         <v>1143</v>
       </c>
-      <c r="C21" s="18">
-        <f>B21/H21</f>
+      <c r="C24" s="3">
+        <f t="shared" si="1"/>
+        <v>18.09</v>
+      </c>
+      <c r="D24" s="18">
+        <f>B24/I24</f>
         <v>63.184079601990049</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="E24" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="18"/>
-      <c r="H21" s="25">
+      <c r="F24" s="18"/>
+      <c r="I24" s="25">
         <v>18.09</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17">
+    <row r="25" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17">
         <v>42576</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B25" s="18">
         <v>5000</v>
       </c>
-      <c r="C22" s="18">
-        <f>B22/H22</f>
+      <c r="C25" s="3">
+        <f t="shared" si="1"/>
+        <v>18.09</v>
+      </c>
+      <c r="D25" s="18">
+        <f>B25/I25</f>
         <v>276.39579878385848</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="E25" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="H22" s="25">
+      <c r="F25" s="18"/>
+      <c r="I25" s="25">
         <v>18.09</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="12">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
         <v>42580</v>
       </c>
-      <c r="B23" s="2">
-        <f>C23/H23</f>
-        <v>54.229934924078087</v>
-      </c>
-      <c r="C23" s="3">
+      <c r="B26" s="2">
         <v>1000</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C26" s="3">
+        <f t="shared" si="1"/>
+        <v>18.09</v>
+      </c>
+      <c r="D26" s="3">
+        <f>B26/C25</f>
+        <v>55.279159756771698</v>
+      </c>
+      <c r="E26" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="H23" s="24">
+      <c r="F26" s="3"/>
+      <c r="I26" s="24">
         <v>18.440000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
         <v>42580</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B27" s="3">
         <v>2700</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C27" s="3">
+        <f t="shared" si="1"/>
+        <v>18.44388277887834</v>
+      </c>
+      <c r="D27" s="3">
         <v>146.38999999999999</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E27" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="H24" s="2">
-        <f t="shared" ref="H24:H28" si="0">B24/C24</f>
+      <c r="F27" s="3"/>
+      <c r="I27" s="2">
+        <f>B27/D27</f>
         <v>18.44388277887834</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="12">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="12">
         <v>42597</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B28" s="3">
         <v>2500</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C28" s="3">
+        <f t="shared" si="1"/>
+        <v>17.857142857142858</v>
+      </c>
+      <c r="D28" s="3">
         <v>140</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E28" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="H25" s="2">
-        <f t="shared" si="0"/>
+      <c r="F28" s="3"/>
+      <c r="I28" s="2">
+        <f>B28/D28</f>
         <v>17.857142857142858</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="12">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
         <v>42607</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B29" s="3">
         <v>5000</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C29" s="3">
+        <f t="shared" si="1"/>
+        <v>18.148820326678766</v>
+      </c>
+      <c r="D29" s="3">
         <v>275.5</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E29" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="G26" t="s">
+      <c r="F29" s="3"/>
+      <c r="H29" t="s">
         <v>63</v>
       </c>
-      <c r="H26" s="2">
-        <f t="shared" si="0"/>
+      <c r="I29" s="2">
+        <f>B29/D29</f>
         <v>18.148820326678766</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="12">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
         <v>42611</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B30" s="3">
         <v>2500</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C30" s="3">
+        <f t="shared" si="1"/>
+        <v>18.236195200233421</v>
+      </c>
+      <c r="D30" s="3">
         <v>137.09</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E30" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="G27" t="s">
+      <c r="F30" s="3"/>
+      <c r="H30" t="s">
         <v>63</v>
       </c>
-      <c r="H27" s="2">
-        <f t="shared" si="0"/>
+      <c r="I30" s="2">
+        <f>B30/D30</f>
         <v>18.236195200233421</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="12">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="12">
         <v>42609</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B31" s="3">
         <v>26500</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C31" s="3">
+        <f t="shared" si="1"/>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="D31" s="3">
         <v>1500</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E31" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="G28" t="s">
+      <c r="F31" s="3"/>
+      <c r="H31" t="s">
         <v>63</v>
       </c>
-      <c r="H28" s="2">
-        <f t="shared" si="0"/>
+      <c r="I31" s="2">
+        <f>B31/D31</f>
         <v>17.666666666666668</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="17">
+    <row r="32" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="17">
         <v>42612</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B32" s="18">
         <v>2500</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C32" s="3">
+        <f t="shared" si="1"/>
+        <v>18.236195200233421</v>
+      </c>
+      <c r="D32" s="18">
         <v>137.09</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="E32" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="18"/>
-      <c r="G29" s="16" t="s">
+      <c r="F32" s="18"/>
+      <c r="H32" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="H29" s="19">
-        <f>B29/C29</f>
+      <c r="I32" s="19">
+        <f>B32/D32</f>
         <v>18.236195200233421</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
+    <row r="33" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B33" s="18">
         <v>5000</v>
       </c>
-      <c r="C30" s="18">
-        <f>B30/H30</f>
+      <c r="C33" s="3">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D33" s="18">
+        <f>B33/I33</f>
         <v>277.77777777777777</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="E33" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="G30" s="16" t="s">
+      <c r="F33" s="18"/>
+      <c r="H33" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="H30" s="23">
+      <c r="I33" s="23">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="12">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="12">
         <v>42639</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B34" s="3">
         <v>1600</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C34" s="3">
+        <f t="shared" si="1"/>
+        <v>19.415119524329572</v>
+      </c>
+      <c r="D34" s="3">
         <v>82.41</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E34" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="H31" s="19">
-        <f>B31/C31</f>
+      <c r="F34" s="3"/>
+      <c r="I34" s="19">
+        <f>B34/D34</f>
         <v>19.415119524329572</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B35" s="3">
         <v>5000</v>
       </c>
-      <c r="C32" s="18">
-        <f>B32/H32</f>
+      <c r="C35" s="3">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D35" s="18">
+        <f>B35/I35</f>
         <v>263.15789473684208</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="H35" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="H32" s="24">
+      <c r="I35" s="24">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
         <v>42661</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B36" s="3">
         <v>5000</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C36" s="3">
+        <f t="shared" si="1"/>
+        <v>18.344584678602875</v>
+      </c>
+      <c r="D36" s="3">
         <v>272.56</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E36" t="s">
         <v>69</v>
       </c>
-      <c r="H33" s="20">
-        <f>B33/C33</f>
+      <c r="I36" s="20">
+        <f>B36/D36</f>
         <v>18.344584678602875</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
         <v>42663</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B37" s="3">
         <v>2600</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C37" s="3">
+        <f t="shared" si="1"/>
+        <v>18.24945602583</v>
+      </c>
+      <c r="D37" s="3">
         <v>142.47</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E37" t="s">
         <v>69</v>
       </c>
-      <c r="H34" s="20">
-        <f t="shared" ref="H34:H36" si="1">B34/C34</f>
+      <c r="I37" s="20">
+        <f>B37/D37</f>
         <v>18.24945602583</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="9">
         <v>42689</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B38" s="3">
         <v>600</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C38" s="3">
+        <f t="shared" si="1"/>
+        <v>20.27027027027027</v>
+      </c>
+      <c r="D38" s="10">
         <v>29.6</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E38" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="20">
-        <f t="shared" si="1"/>
+      <c r="I38" s="20">
+        <f>B38/D38</f>
         <v>20.27027027027027</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
         <v>42699</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B39" s="3">
         <v>2500</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C39" s="3">
+        <f t="shared" si="1"/>
+        <v>20.269174639208689</v>
+      </c>
+      <c r="D39" s="10">
         <v>123.34</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E39" t="s">
         <v>70</v>
       </c>
-      <c r="G36" s="26" t="s">
+      <c r="H39" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="H36" s="20">
-        <f t="shared" si="1"/>
+      <c r="I39" s="20">
+        <f>B39/D39</f>
         <v>20.269174639208689</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
         <v>42710</v>
       </c>
-      <c r="B37" s="3">
-        <f>C37*H37</f>
+      <c r="B40" s="3">
+        <f>D40*I40</f>
         <v>1517.25</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C40" s="3">
+        <f t="shared" si="1"/>
+        <v>20.23</v>
+      </c>
+      <c r="D40" s="10">
         <v>75</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E40" t="s">
         <v>73</v>
       </c>
-      <c r="H37">
+      <c r="I40">
         <v>20.23</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B41" s="10">
         <v>1000</v>
       </c>
-      <c r="D38" t="s">
+      <c r="C41" s="3">
+        <f t="shared" si="1"/>
+        <v>20.23</v>
+      </c>
+      <c r="D41" s="10">
+        <f>B41/C40</f>
+        <v>49.431537320810676</v>
+      </c>
+      <c r="E41" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
         <v>42716</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B42" s="10">
         <v>1000</v>
       </c>
-      <c r="C39">
-        <v>-49.97</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C42" s="3">
+        <f t="shared" si="1"/>
+        <v>20.012007204322593</v>
+      </c>
+      <c r="D42">
+        <v>49.97</v>
+      </c>
+      <c r="E42" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="9">
         <v>42719</v>
-      </c>
-      <c r="B40" s="10">
-        <v>2500</v>
-      </c>
-      <c r="C40">
-        <v>-125.9</v>
-      </c>
-      <c r="D40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="9">
-        <v>42739</v>
-      </c>
-      <c r="B41" s="10">
-        <v>1700</v>
-      </c>
-      <c r="C41">
-        <v>-82.16</v>
-      </c>
-      <c r="D41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="9">
-        <v>42744</v>
-      </c>
-      <c r="B42" s="10">
-        <v>1350</v>
-      </c>
-      <c r="C42">
-        <v>-64.709999999999994</v>
-      </c>
-      <c r="D42" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="9">
-        <v>42752</v>
       </c>
       <c r="B43" s="10">
         <v>2500</v>
       </c>
-      <c r="C43">
-        <v>-117.4</v>
-      </c>
-      <c r="D43" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="27">
-        <v>42765</v>
+      <c r="C43" s="3">
+        <f t="shared" si="1"/>
+        <v>19.857029388403493</v>
+      </c>
+      <c r="D43">
+        <v>125.9</v>
+      </c>
+      <c r="E43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="9">
+        <v>42739</v>
       </c>
       <c r="B44" s="10">
-        <v>2500</v>
-      </c>
-      <c r="C44" s="16">
-        <v>-120.94</v>
-      </c>
-      <c r="D44" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1700</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" si="1"/>
+        <v>20.691333982473225</v>
+      </c>
+      <c r="D44">
+        <v>82.16</v>
+      </c>
+      <c r="E44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
-        <v>42773</v>
+        <v>42744</v>
       </c>
       <c r="B45" s="10">
-        <v>1000</v>
-      </c>
-      <c r="C45">
-        <v>-49.99</v>
-      </c>
-      <c r="D45" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1350</v>
+      </c>
+      <c r="C45" s="3">
+        <f t="shared" si="1"/>
+        <v>20.862308762169683</v>
+      </c>
+      <c r="D45">
+        <v>64.709999999999994</v>
+      </c>
+      <c r="E45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
-        <v>42780</v>
+        <v>42752</v>
       </c>
       <c r="B46" s="10">
         <v>2500</v>
       </c>
-      <c r="C46">
-        <v>125.35</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C46" s="3">
+        <f t="shared" si="1"/>
+        <v>21.29471890971039</v>
+      </c>
+      <c r="D46">
+        <v>117.4</v>
+      </c>
+      <c r="E46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="27">
+        <v>42765</v>
+      </c>
+      <c r="B47" s="10">
+        <v>2500</v>
+      </c>
+      <c r="C47" s="3">
+        <f t="shared" si="1"/>
+        <v>20.671407309409624</v>
+      </c>
+      <c r="D47" s="16">
+        <v>120.94</v>
+      </c>
+      <c r="E47" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="12">
-        <v>42783</v>
-      </c>
-      <c r="B47" s="10">
-        <v>6400</v>
-      </c>
-      <c r="C47" s="10">
-        <v>482.45</v>
-      </c>
-      <c r="D47" t="s">
-        <v>82</v>
-      </c>
-      <c r="E47" s="10">
-        <f>B47/C47</f>
-        <v>13.265623380661209</v>
-      </c>
-      <c r="G47" s="21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="12">
-        <v>42783</v>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="9">
+        <v>42773</v>
       </c>
       <c r="B48" s="10">
-        <v>-4000</v>
-      </c>
-      <c r="C48" s="10">
-        <f>B48/E47</f>
-        <v>-301.53125</v>
-      </c>
-      <c r="D48" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="12">
-        <v>42793</v>
+        <v>1000</v>
+      </c>
+      <c r="C48" s="3">
+        <f t="shared" si="1"/>
+        <v>20.004000800160032</v>
+      </c>
+      <c r="D48">
+        <v>49.99</v>
+      </c>
+      <c r="E48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="9">
+        <v>42780</v>
       </c>
       <c r="B49" s="10">
         <v>2500</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="3">
+        <f t="shared" si="1"/>
+        <v>19.944156362185879</v>
+      </c>
+      <c r="D49">
+        <v>125.35</v>
+      </c>
+      <c r="E49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="12">
+        <v>42783</v>
+      </c>
+      <c r="B50" s="10">
+        <v>6400</v>
+      </c>
+      <c r="C50" s="3">
+        <f t="shared" si="1"/>
+        <v>13.265623380661209</v>
+      </c>
+      <c r="D50" s="10">
+        <v>482.45</v>
+      </c>
+      <c r="E50" t="s">
+        <v>82</v>
+      </c>
+      <c r="F50" s="10">
+        <f>B50/D50</f>
+        <v>13.265623380661209</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="12">
+        <v>42783</v>
+      </c>
+      <c r="B51" s="29">
+        <v>-4000</v>
+      </c>
+      <c r="C51" s="3">
+        <f t="shared" si="1"/>
+        <v>13.265623380661209</v>
+      </c>
+      <c r="D51" s="29">
+        <f>B51/F50</f>
+        <v>-301.53125</v>
+      </c>
+      <c r="E51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="12">
+        <v>42793</v>
+      </c>
+      <c r="B52" s="10">
+        <v>2500</v>
+      </c>
+      <c r="C52" s="3">
+        <f t="shared" si="1"/>
+        <v>19.379844961240309</v>
+      </c>
+      <c r="D52" s="10">
         <v>129</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E52" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="12">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="12">
         <v>42804</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B53" s="10">
         <v>1600</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C53" s="3">
+        <f t="shared" si="1"/>
+        <v>19.335347432024168</v>
+      </c>
+      <c r="D53" s="10">
         <v>82.75</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E53" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="12">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="12">
         <v>42809</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B54" s="10">
         <v>2500</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C54" s="3">
+        <f t="shared" si="1"/>
+        <v>19.23076923076923</v>
+      </c>
+      <c r="D54" s="10">
         <v>130</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E54" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="12">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="12">
         <v>42824</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B55" s="10">
         <v>4100</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C55" s="3">
+        <f t="shared" si="1"/>
+        <v>18.385650224215247</v>
+      </c>
+      <c r="D55" s="10">
         <v>223</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E55" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="12">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="12">
         <v>42828</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B56" s="10">
         <v>9000</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C56" s="3">
+        <f t="shared" si="1"/>
+        <v>18.404907975460123</v>
+      </c>
+      <c r="D56" s="10">
         <v>489</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E56" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="12">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="12">
         <v>42832</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B57" s="10">
         <v>500</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C57" s="3">
+        <f t="shared" si="1"/>
+        <v>18.518518518518519</v>
+      </c>
+      <c r="D57" s="10">
         <v>27</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E57" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="12">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="12">
         <v>42832</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B58" s="29">
         <v>-500</v>
       </c>
-      <c r="C55" s="10">
-        <v>27</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="C58" s="3">
+        <f t="shared" si="1"/>
+        <v>18.518518518518519</v>
+      </c>
+      <c r="D58" s="29">
+        <v>-27</v>
+      </c>
+      <c r="E58" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="9">
         <v>42839</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B59" s="10">
         <v>4500</v>
       </c>
-      <c r="C56">
+      <c r="C59" s="3">
+        <f t="shared" si="1"/>
+        <v>18.372596251990363</v>
+      </c>
+      <c r="D59">
         <v>244.93</v>
       </c>
-      <c r="D56" s="28" t="s">
+      <c r="E59" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="H56" s="2"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="9">
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="9">
         <v>42856</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B60" s="10">
         <v>7000</v>
       </c>
-      <c r="C57">
+      <c r="C60" s="3">
+        <f t="shared" si="1"/>
+        <v>18.647273502224355</v>
+      </c>
+      <c r="D60">
         <v>375.39</v>
       </c>
-      <c r="D57" s="28" t="s">
+      <c r="E60" s="28" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="9">
         <v>42870</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B61" s="10">
         <v>3300</v>
       </c>
-      <c r="C58">
+      <c r="C61" s="3">
+        <f t="shared" si="1"/>
+        <v>18.417234066302044</v>
+      </c>
+      <c r="D61">
         <v>179.18</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E61" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="9">
         <v>42870</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B62" s="29">
         <v>-300</v>
       </c>
-      <c r="C59">
+      <c r="C62" s="3">
+        <f t="shared" si="1"/>
+        <v>18.419999999999998</v>
+      </c>
+      <c r="D62" s="26">
         <v>-16.286644951140065</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E62" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="9">
         <v>42886</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B63" s="10">
         <v>2500</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C63" s="3">
+        <f t="shared" si="1"/>
+        <v>18.088416178279427</v>
+      </c>
+      <c r="D63" s="10">
         <v>138.21</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E63" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="12">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="12">
         <v>42894</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B64" s="10">
         <v>2300</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C64" s="3">
+        <f t="shared" si="1"/>
+        <v>17.833604714274639</v>
+      </c>
+      <c r="D64" s="10">
         <v>128.97</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E64" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="12">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="12">
         <v>42894</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B65" s="29">
         <v>-800</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C65" s="3">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D65" s="29">
         <v>-44.444444444444443</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E65" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="9">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="9">
         <v>42900</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B66" s="10">
         <v>7800</v>
       </c>
-      <c r="C63" s="10">
+      <c r="C66" s="3">
+        <f t="shared" si="1"/>
+        <v>17.792376650927256</v>
+      </c>
+      <c r="D66" s="10">
         <v>438.39</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E66" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="9">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="9">
         <v>42913</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B67" s="10">
         <v>1000</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C67" s="3">
+        <f t="shared" si="1"/>
+        <v>17.500875043752188</v>
+      </c>
+      <c r="D67" s="10">
         <v>57.14</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E67" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="9">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="9">
         <v>42916</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B68" s="10">
         <v>2500</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C68" s="3">
+        <f t="shared" si="1"/>
+        <v>17.621766405864523</v>
+      </c>
+      <c r="D68" s="10">
         <v>141.87</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="9">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="9">
         <v>42921</v>
       </c>
-      <c r="B66" s="10">
+      <c r="B69" s="10">
         <v>15000</v>
       </c>
-      <c r="C66" s="10">
+      <c r="C69" s="3">
+        <f t="shared" si="1"/>
+        <v>17.987552613591394</v>
+      </c>
+      <c r="D69" s="10">
         <v>833.91</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E69" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="9">
+        <v>42927</v>
+      </c>
+      <c r="B70" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C70" s="3">
+        <f t="shared" si="1"/>
+        <v>17.667844522968199</v>
+      </c>
+      <c r="D70" s="10">
+        <v>283</v>
+      </c>
+      <c r="E70" t="s">
+        <v>100</v>
+      </c>
+      <c r="F70"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="9">
+        <v>42930</v>
+      </c>
+      <c r="B71" s="10">
+        <v>7000</v>
+      </c>
+      <c r="C71" s="3">
+        <f t="shared" si="1"/>
+        <v>17.456359102244388</v>
+      </c>
+      <c r="D71" s="10">
+        <v>401</v>
+      </c>
+      <c r="E71" t="s">
+        <v>79</v>
+      </c>
+      <c r="F71"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="9">
+        <v>42934</v>
+      </c>
+      <c r="B72" s="30">
+        <v>3000</v>
+      </c>
+      <c r="C72" s="3">
+        <f t="shared" si="1"/>
+        <v>17.142857142857142</v>
+      </c>
+      <c r="D72" s="30">
+        <v>175</v>
+      </c>
+      <c r="E72" s="31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="9">
+        <v>42934</v>
+      </c>
+      <c r="B73" s="29">
+        <v>-3000</v>
+      </c>
+      <c r="C73" s="3">
+        <f t="shared" ref="C73:C81" si="2">B73/D73</f>
+        <v>17.142857142857142</v>
+      </c>
+      <c r="D73" s="29">
+        <v>-175</v>
+      </c>
+      <c r="E73" s="31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="9">
+        <v>42937</v>
+      </c>
+      <c r="B74" s="30">
+        <v>1500</v>
+      </c>
+      <c r="C74" s="3">
+        <f t="shared" si="2"/>
+        <v>17.1939477303989</v>
+      </c>
+      <c r="D74" s="30">
+        <v>87.24</v>
+      </c>
+      <c r="E74" s="31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="9">
+        <v>42937</v>
+      </c>
+      <c r="B75" s="29">
+        <v>-500</v>
+      </c>
+      <c r="C75" s="3">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="D75" s="29">
+        <f>B75/17</f>
+        <v>-29.411764705882351</v>
+      </c>
+      <c r="E75" s="31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="32">
+        <v>42939</v>
+      </c>
+      <c r="B76" s="30">
+        <v>500</v>
+      </c>
+      <c r="C76" s="3">
+        <f t="shared" si="2"/>
+        <v>17.241379310344829</v>
+      </c>
+      <c r="D76" s="30">
+        <v>29</v>
+      </c>
+      <c r="E76" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F76" s="30"/>
+    </row>
+    <row r="77" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="32">
+        <v>42939</v>
+      </c>
+      <c r="B77" s="29">
+        <v>-500</v>
+      </c>
+      <c r="C77" s="3">
+        <f t="shared" si="2"/>
+        <v>17.241379310344829</v>
+      </c>
+      <c r="D77" s="29">
+        <v>-29</v>
+      </c>
+      <c r="E77" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F77" s="30"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="9">
+        <v>42947</v>
+      </c>
+      <c r="B78" s="10">
+        <v>1000</v>
+      </c>
+      <c r="C78" s="3">
+        <f t="shared" si="2"/>
+        <v>17.543859649122808</v>
+      </c>
+      <c r="D78" s="10">
+        <v>57</v>
+      </c>
+      <c r="E78" s="31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="9"/>
+      <c r="C79" s="3"/>
+      <c r="E79" s="31"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="33">
+        <v>42963</v>
+      </c>
+      <c r="B80" s="34">
+        <f>D80*F81</f>
+        <v>-178991.99999999997</v>
+      </c>
+      <c r="C80" s="35">
+        <f t="shared" si="2"/>
+        <v>18.079999999999998</v>
+      </c>
+      <c r="D80" s="34">
+        <v>-9900</v>
+      </c>
+      <c r="E80" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="F80" s="34"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="33">
+        <v>42968</v>
+      </c>
+      <c r="B81" s="34">
+        <f>D81*F81</f>
+        <v>-70222.719999999987</v>
+      </c>
+      <c r="C81" s="35">
+        <f t="shared" si="2"/>
+        <v>18.079999999999998</v>
+      </c>
+      <c r="D81" s="34">
+        <v>-3884</v>
+      </c>
+      <c r="E81" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="F81" s="37">
+        <v>18.079999999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2205,7 +2788,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1961959F-6746-49B6-A3C4-A9AB6059CEFC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25892538-2F35-4E25-BAF0-CF37BA772EB6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
